--- a/MAE.xlsx
+++ b/MAE.xlsx
@@ -351,7 +351,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:L19"/>
+  <dimension ref="A1:O19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -385,35 +385,50 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>CSR.rda</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
           <t>ElNet.rda</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>Factor.rda</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>Lasso.rda</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>RF.rda</t>
+        </is>
+      </c>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
+          <t>RFOLS.rda</t>
+        </is>
+      </c>
+      <c r="L1" s="1" t="inlineStr">
         <is>
           <t>RR.rda</t>
         </is>
       </c>
-      <c r="J1" s="1" t="inlineStr">
+      <c r="M1" s="1" t="inlineStr">
         <is>
           <t>T.Factor.rda</t>
         </is>
       </c>
-      <c r="K1" s="1" t="inlineStr">
+      <c r="N1" s="1" t="inlineStr">
         <is>
           <t>rwe</t>
         </is>
       </c>
-      <c r="L1" s="1" t="inlineStr">
+      <c r="O1" s="1" t="inlineStr">
         <is>
           <t>is_min</t>
         </is>
@@ -436,26 +451,35 @@
         <v>0.8915307782108836</v>
       </c>
       <c r="F2">
+        <v>0.8242209979117996</v>
+      </c>
+      <c r="G2">
         <v>0.7955579734170611</v>
       </c>
-      <c r="G2">
+      <c r="H2">
         <v>0.8406219687349417</v>
       </c>
-      <c r="H2">
+      <c r="I2">
         <v>0.7934827177764001</v>
       </c>
-      <c r="I2">
+      <c r="J2">
+        <v>0.8058910398226807</v>
+      </c>
+      <c r="K2">
+        <v>0.7910040273345959</v>
+      </c>
+      <c r="L2">
         <v>0.8462145723322347</v>
       </c>
-      <c r="J2">
+      <c r="M2">
         <v>0.8460295957698092</v>
       </c>
-      <c r="K2">
-        <v>1</v>
-      </c>
-      <c r="L2" t="inlineStr">
-        <is>
-          <t>Lasso.rda</t>
+      <c r="N2">
+        <v>1</v>
+      </c>
+      <c r="O2" t="inlineStr">
+        <is>
+          <t>RFOLS.rda</t>
         </is>
       </c>
     </row>
@@ -476,24 +500,33 @@
         <v>0.7833624210864187</v>
       </c>
       <c r="F3">
+        <v>0.7410767361629744</v>
+      </c>
+      <c r="G3">
         <v>0.7200282821885828</v>
       </c>
-      <c r="G3">
+      <c r="H3">
         <v>0.7816339507643481</v>
       </c>
-      <c r="H3">
+      <c r="I3">
         <v>0.7223689836732555</v>
       </c>
-      <c r="I3">
+      <c r="J3">
+        <v>0.7164764699089768</v>
+      </c>
+      <c r="K3">
+        <v>0.7398664541569254</v>
+      </c>
+      <c r="L3">
         <v>0.755353230346888</v>
       </c>
-      <c r="J3">
+      <c r="M3">
         <v>0.783270813813484</v>
       </c>
-      <c r="K3">
-        <v>1</v>
-      </c>
-      <c r="L3" t="inlineStr">
+      <c r="N3">
+        <v>1</v>
+      </c>
+      <c r="O3" t="inlineStr">
         <is>
           <t>adaElNet.rda</t>
         </is>
@@ -516,26 +549,35 @@
         <v>0.7758024813759504</v>
       </c>
       <c r="F4">
+        <v>0.7366030114502552</v>
+      </c>
+      <c r="G4">
         <v>0.7262246080348134</v>
       </c>
-      <c r="G4">
+      <c r="H4">
         <v>0.7730176979616508</v>
       </c>
-      <c r="H4">
+      <c r="I4">
         <v>0.7188255303983071</v>
       </c>
-      <c r="I4">
+      <c r="J4">
+        <v>0.7095787920719657</v>
+      </c>
+      <c r="K4">
+        <v>0.7330559820343303</v>
+      </c>
+      <c r="L4">
         <v>0.7496305689599703</v>
       </c>
-      <c r="J4">
+      <c r="M4">
         <v>0.7749027208745039</v>
       </c>
-      <c r="K4">
-        <v>1</v>
-      </c>
-      <c r="L4" t="inlineStr">
-        <is>
-          <t>Lasso.rda</t>
+      <c r="N4">
+        <v>1</v>
+      </c>
+      <c r="O4" t="inlineStr">
+        <is>
+          <t>RF.rda</t>
         </is>
       </c>
     </row>
@@ -556,26 +598,35 @@
         <v>0.7864370865857221</v>
       </c>
       <c r="F5">
+        <v>0.7725361105078947</v>
+      </c>
+      <c r="G5">
         <v>0.7545328202862388</v>
       </c>
-      <c r="G5">
+      <c r="H5">
         <v>0.7926131127193953</v>
       </c>
-      <c r="H5">
+      <c r="I5">
         <v>0.7509839034100427</v>
       </c>
-      <c r="I5">
+      <c r="J5">
+        <v>0.7442268415059647</v>
+      </c>
+      <c r="K5">
+        <v>0.7667242886504535</v>
+      </c>
+      <c r="L5">
         <v>0.7895806735634477</v>
       </c>
-      <c r="J5">
+      <c r="M5">
         <v>0.7953645895862612</v>
       </c>
-      <c r="K5">
-        <v>1</v>
-      </c>
-      <c r="L5" t="inlineStr">
-        <is>
-          <t>Lasso.rda</t>
+      <c r="N5">
+        <v>1</v>
+      </c>
+      <c r="O5" t="inlineStr">
+        <is>
+          <t>RF.rda</t>
         </is>
       </c>
     </row>
@@ -596,26 +647,35 @@
         <v>0.7885828359702797</v>
       </c>
       <c r="F6">
+        <v>0.7741650810770385</v>
+      </c>
+      <c r="G6">
         <v>0.7576486966897563</v>
       </c>
-      <c r="G6">
+      <c r="H6">
         <v>0.7764077731292298</v>
       </c>
-      <c r="H6">
+      <c r="I6">
         <v>0.7550398722578714</v>
       </c>
-      <c r="I6">
+      <c r="J6">
+        <v>0.7379638341546851</v>
+      </c>
+      <c r="K6">
+        <v>0.7604107427093847</v>
+      </c>
+      <c r="L6">
         <v>0.7758578914721557</v>
       </c>
-      <c r="J6">
+      <c r="M6">
         <v>0.7779980352315707</v>
       </c>
-      <c r="K6">
-        <v>1</v>
-      </c>
-      <c r="L6" t="inlineStr">
-        <is>
-          <t>Lasso.rda</t>
+      <c r="N6">
+        <v>1</v>
+      </c>
+      <c r="O6" t="inlineStr">
+        <is>
+          <t>RF.rda</t>
         </is>
       </c>
     </row>
@@ -636,26 +696,35 @@
         <v>0.7828408961060296</v>
       </c>
       <c r="F7">
+        <v>0.7789143326884677</v>
+      </c>
+      <c r="G7">
         <v>0.7635773338180028</v>
       </c>
-      <c r="G7">
+      <c r="H7">
         <v>0.7765944408265406</v>
       </c>
-      <c r="H7">
+      <c r="I7">
         <v>0.7556915856392483</v>
       </c>
-      <c r="I7">
+      <c r="J7">
+        <v>0.7490257095546181</v>
+      </c>
+      <c r="K7">
+        <v>0.7639149533519656</v>
+      </c>
+      <c r="L7">
         <v>0.7762562669785036</v>
       </c>
-      <c r="J7">
+      <c r="M7">
         <v>0.79174865707582</v>
       </c>
-      <c r="K7">
-        <v>1</v>
-      </c>
-      <c r="L7" t="inlineStr">
-        <is>
-          <t>Lasso.rda</t>
+      <c r="N7">
+        <v>1</v>
+      </c>
+      <c r="O7" t="inlineStr">
+        <is>
+          <t>RF.rda</t>
         </is>
       </c>
     </row>
@@ -676,26 +745,35 @@
         <v>0.7509025067398555</v>
       </c>
       <c r="F8">
+        <v>0.7550773531829211</v>
+      </c>
+      <c r="G8">
         <v>0.7542693493068331</v>
       </c>
-      <c r="G8">
+      <c r="H8">
         <v>0.7520956243396835</v>
       </c>
-      <c r="H8">
+      <c r="I8">
         <v>0.7449043435699758</v>
       </c>
-      <c r="I8">
+      <c r="J8">
+        <v>0.7345703777896981</v>
+      </c>
+      <c r="K8">
+        <v>0.7434178586070972</v>
+      </c>
+      <c r="L8">
         <v>0.745617804305842</v>
       </c>
-      <c r="J8">
+      <c r="M8">
         <v>0.7583320657683044</v>
       </c>
-      <c r="K8">
-        <v>1</v>
-      </c>
-      <c r="L8" t="inlineStr">
-        <is>
-          <t>Lasso.rda</t>
+      <c r="N8">
+        <v>1</v>
+      </c>
+      <c r="O8" t="inlineStr">
+        <is>
+          <t>RF.rda</t>
         </is>
       </c>
     </row>
@@ -716,24 +794,33 @@
         <v>0.7403177923078022</v>
       </c>
       <c r="F9">
+        <v>0.7354227982716721</v>
+      </c>
+      <c r="G9">
         <v>0.712689653353468</v>
       </c>
-      <c r="G9">
+      <c r="H9">
         <v>0.7435862035351532</v>
       </c>
-      <c r="H9">
+      <c r="I9">
         <v>0.7199697379839248</v>
       </c>
-      <c r="I9">
+      <c r="J9">
+        <v>0.71706485184845</v>
+      </c>
+      <c r="K9">
+        <v>0.7284497139611228</v>
+      </c>
+      <c r="L9">
         <v>0.7429724133003763</v>
       </c>
-      <c r="J9">
+      <c r="M9">
         <v>0.7442416066590384</v>
       </c>
-      <c r="K9">
-        <v>1</v>
-      </c>
-      <c r="L9" t="inlineStr">
+      <c r="N9">
+        <v>1</v>
+      </c>
+      <c r="O9" t="inlineStr">
         <is>
           <t>ElNet.rda</t>
         </is>
@@ -756,26 +843,35 @@
         <v>0.7806172197920001</v>
       </c>
       <c r="F10">
+        <v>0.784805902208398</v>
+      </c>
+      <c r="G10">
         <v>0.7632955331949946</v>
       </c>
-      <c r="G10">
+      <c r="H10">
         <v>0.8002837355613985</v>
       </c>
-      <c r="H10">
+      <c r="I10">
         <v>0.7583130097836605</v>
       </c>
-      <c r="I10">
+      <c r="J10">
+        <v>0.7533580968561019</v>
+      </c>
+      <c r="K10">
+        <v>0.7722615213554733</v>
+      </c>
+      <c r="L10">
         <v>0.7784202703446794</v>
       </c>
-      <c r="J10">
+      <c r="M10">
         <v>0.8053238331961009</v>
       </c>
-      <c r="K10">
-        <v>1</v>
-      </c>
-      <c r="L10" t="inlineStr">
-        <is>
-          <t>Lasso.rda</t>
+      <c r="N10">
+        <v>1</v>
+      </c>
+      <c r="O10" t="inlineStr">
+        <is>
+          <t>RF.rda</t>
         </is>
       </c>
     </row>
@@ -796,26 +892,35 @@
         <v>0.8170388219551263</v>
       </c>
       <c r="F11">
+        <v>0.8292354038226431</v>
+      </c>
+      <c r="G11">
         <v>0.8070585503700759</v>
       </c>
-      <c r="G11">
+      <c r="H11">
         <v>0.8274657629334092</v>
       </c>
-      <c r="H11">
+      <c r="I11">
         <v>0.808963594415091</v>
       </c>
-      <c r="I11">
+      <c r="J11">
+        <v>0.7748698939840916</v>
+      </c>
+      <c r="K11">
+        <v>0.8036665951465379</v>
+      </c>
+      <c r="L11">
         <v>0.8155391219552922</v>
       </c>
-      <c r="J11">
+      <c r="M11">
         <v>0.8045373894548611</v>
       </c>
-      <c r="K11">
-        <v>1</v>
-      </c>
-      <c r="L11" t="inlineStr">
-        <is>
-          <t>T.Factor.rda</t>
+      <c r="N11">
+        <v>1</v>
+      </c>
+      <c r="O11" t="inlineStr">
+        <is>
+          <t>RF.rda</t>
         </is>
       </c>
     </row>
@@ -836,26 +941,35 @@
         <v>0.8643568870908333</v>
       </c>
       <c r="F12">
+        <v>0.8371673501206688</v>
+      </c>
+      <c r="G12">
         <v>0.8322012093085669</v>
       </c>
-      <c r="G12">
+      <c r="H12">
         <v>0.8243920046949177</v>
       </c>
-      <c r="H12">
+      <c r="I12">
         <v>0.8368147611280642</v>
       </c>
-      <c r="I12">
+      <c r="J12">
+        <v>0.8075424685198748</v>
+      </c>
+      <c r="K12">
+        <v>0.8271947906080002</v>
+      </c>
+      <c r="L12">
         <v>0.8378343131959389</v>
       </c>
-      <c r="J12">
+      <c r="M12">
         <v>0.8391949127405448</v>
       </c>
-      <c r="K12">
-        <v>1</v>
-      </c>
-      <c r="L12" t="inlineStr">
-        <is>
-          <t>Factor.rda</t>
+      <c r="N12">
+        <v>1</v>
+      </c>
+      <c r="O12" t="inlineStr">
+        <is>
+          <t>RF.rda</t>
         </is>
       </c>
     </row>
@@ -876,24 +990,33 @@
         <v>0.7681220664782075</v>
       </c>
       <c r="F13">
+        <v>0.7543540134730383</v>
+      </c>
+      <c r="G13">
         <v>0.733364228045251</v>
       </c>
-      <c r="G13">
+      <c r="H13">
         <v>0.7532428710681718</v>
       </c>
-      <c r="H13">
+      <c r="I13">
         <v>0.7355803135421569</v>
       </c>
-      <c r="I13">
+      <c r="J13">
+        <v>0.7272113980887631</v>
+      </c>
+      <c r="K13">
+        <v>0.7157803940895479</v>
+      </c>
+      <c r="L13">
         <v>0.7146606644621917</v>
       </c>
-      <c r="J13">
+      <c r="M13">
         <v>0.7779169712720958</v>
       </c>
-      <c r="K13">
-        <v>1</v>
-      </c>
-      <c r="L13" t="inlineStr">
+      <c r="N13">
+        <v>1</v>
+      </c>
+      <c r="O13" t="inlineStr">
         <is>
           <t>RR.rda</t>
         </is>
@@ -916,24 +1039,33 @@
         <v>0.6954685634077487</v>
       </c>
       <c r="F14">
+        <v>0.6869472895725606</v>
+      </c>
+      <c r="G14">
         <v>0.6782082012950378</v>
       </c>
-      <c r="G14">
+      <c r="H14">
         <v>0.6288703133999601</v>
       </c>
-      <c r="H14">
+      <c r="I14">
         <v>0.6617688002723582</v>
       </c>
-      <c r="I14">
+      <c r="J14">
+        <v>0.7060648277658471</v>
+      </c>
+      <c r="K14">
+        <v>0.6681264589086559</v>
+      </c>
+      <c r="L14">
         <v>0.749218722141481</v>
       </c>
-      <c r="J14">
+      <c r="M14">
         <v>0.658579189029282</v>
       </c>
-      <c r="K14">
-        <v>1</v>
-      </c>
-      <c r="L14" t="inlineStr">
+      <c r="N14">
+        <v>1</v>
+      </c>
+      <c r="O14" t="inlineStr">
         <is>
           <t>Factor.rda</t>
         </is>
@@ -956,24 +1088,33 @@
         <v>0.8215514555931186</v>
       </c>
       <c r="F15">
+        <v>0.8441573089002971</v>
+      </c>
+      <c r="G15">
         <v>0.9021858736508887</v>
       </c>
-      <c r="G15">
+      <c r="H15">
         <v>0.7833793890079883</v>
       </c>
-      <c r="H15">
+      <c r="I15">
         <v>0.8639895350958857</v>
       </c>
-      <c r="I15">
+      <c r="J15">
+        <v>0.8364899667064811</v>
+      </c>
+      <c r="K15">
+        <v>0.8373169052792926</v>
+      </c>
+      <c r="L15">
         <v>0.899205649992347</v>
       </c>
-      <c r="J15">
+      <c r="M15">
         <v>0.8170900996298954</v>
       </c>
-      <c r="K15">
-        <v>1</v>
-      </c>
-      <c r="L15" t="inlineStr">
+      <c r="N15">
+        <v>1</v>
+      </c>
+      <c r="O15" t="inlineStr">
         <is>
           <t>Factor.rda</t>
         </is>
@@ -996,26 +1137,35 @@
         <v>0.8464393799789488</v>
       </c>
       <c r="F16">
+        <v>0.9463025154265256</v>
+      </c>
+      <c r="G16">
         <v>1.05067035811247</v>
       </c>
-      <c r="G16">
+      <c r="H16">
         <v>0.9486389889576081</v>
       </c>
-      <c r="H16">
+      <c r="I16">
         <v>1.012567223042945</v>
       </c>
-      <c r="I16">
+      <c r="J16">
+        <v>0.8099862175751939</v>
+      </c>
+      <c r="K16">
+        <v>0.9103884174751676</v>
+      </c>
+      <c r="L16">
         <v>0.9248194754657159</v>
       </c>
-      <c r="J16">
+      <c r="M16">
         <v>0.8113681625429787</v>
       </c>
-      <c r="K16">
-        <v>1</v>
-      </c>
-      <c r="L16" t="inlineStr">
-        <is>
-          <t>T.Factor.rda</t>
+      <c r="N16">
+        <v>1</v>
+      </c>
+      <c r="O16" t="inlineStr">
+        <is>
+          <t>RF.rda</t>
         </is>
       </c>
     </row>
@@ -1036,26 +1186,35 @@
         <v>0.8284529343833572</v>
       </c>
       <c r="F17">
+        <v>0.8961857069311807</v>
+      </c>
+      <c r="G17">
         <v>0.9704734299737228</v>
       </c>
-      <c r="G17">
+      <c r="H17">
         <v>0.8911001529818774</v>
       </c>
-      <c r="H17">
+      <c r="I17">
         <v>0.9395334491297488</v>
       </c>
-      <c r="I17">
+      <c r="J17">
+        <v>0.7974957164798273</v>
+      </c>
+      <c r="K17">
+        <v>0.867528413796495</v>
+      </c>
+      <c r="L17">
         <v>0.8893609208722075</v>
       </c>
-      <c r="J17">
+      <c r="M17">
         <v>0.802129798134576</v>
       </c>
-      <c r="K17">
-        <v>1</v>
-      </c>
-      <c r="L17" t="inlineStr">
-        <is>
-          <t>T.Factor.rda</t>
+      <c r="N17">
+        <v>1</v>
+      </c>
+      <c r="O17" t="inlineStr">
+        <is>
+          <t>RF.rda</t>
         </is>
       </c>
     </row>
@@ -1076,26 +1235,35 @@
         <v>0.8915307782108836</v>
       </c>
       <c r="F18">
+        <v>0.9463025154265256</v>
+      </c>
+      <c r="G18">
         <v>1.05067035811247</v>
       </c>
-      <c r="G18">
+      <c r="H18">
         <v>0.9486389889576081</v>
       </c>
-      <c r="H18">
+      <c r="I18">
         <v>1.012567223042945</v>
       </c>
-      <c r="I18">
+      <c r="J18">
+        <v>0.8364899667064811</v>
+      </c>
+      <c r="K18">
+        <v>0.9103884174751676</v>
+      </c>
+      <c r="L18">
         <v>0.9248194754657159</v>
       </c>
-      <c r="J18">
+      <c r="M18">
         <v>0.8460295957698092</v>
       </c>
-      <c r="K18">
-        <v>1</v>
-      </c>
-      <c r="L18" t="inlineStr">
-        <is>
-          <t>T.Factor.rda</t>
+      <c r="N18">
+        <v>1</v>
+      </c>
+      <c r="O18" t="inlineStr">
+        <is>
+          <t>RF.rda</t>
         </is>
       </c>
     </row>
@@ -1116,24 +1284,33 @@
         <v>0.6954685634077487</v>
       </c>
       <c r="F19">
+        <v>0.6869472895725606</v>
+      </c>
+      <c r="G19">
         <v>0.6782082012950378</v>
       </c>
-      <c r="G19">
+      <c r="H19">
         <v>0.6288703133999601</v>
       </c>
-      <c r="H19">
+      <c r="I19">
         <v>0.6617688002723582</v>
       </c>
-      <c r="I19">
+      <c r="J19">
+        <v>0.7060648277658471</v>
+      </c>
+      <c r="K19">
+        <v>0.6681264589086559</v>
+      </c>
+      <c r="L19">
         <v>0.7146606644621917</v>
       </c>
-      <c r="J19">
+      <c r="M19">
         <v>0.658579189029282</v>
       </c>
-      <c r="K19">
-        <v>1</v>
-      </c>
-      <c r="L19" t="inlineStr">
+      <c r="N19">
+        <v>1</v>
+      </c>
+      <c r="O19" t="inlineStr">
         <is>
           <t>Factor.rda</t>
         </is>
